--- a/Insidental/List.xlsx
+++ b/Insidental/List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nova\PMII\2022\Insidental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275345D4-9205-4098-8942-59FB0EDCDA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8083DD42-707B-49A0-AB3D-02AF01EF33A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Nomor</t>
   </si>
@@ -52,13 +52,22 @@
   </si>
   <si>
     <t>Kamis, 10 Februari 2022</t>
+  </si>
+  <si>
+    <t>Insidental.02</t>
+  </si>
+  <si>
+    <t>Kajian Permenaker Nomor 2 Tahun 2022</t>
+  </si>
+  <si>
+    <t>Senin, 14 Februari 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +87,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -386,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -433,7 +448,22 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
